--- a/CASUAL/LA ONT/DATU, SHIRLEY GAZMEN.xlsx
+++ b/CASUAL/LA ONT/DATU, SHIRLEY GAZMEN.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>UT(1-2-5)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +967,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,7 +1031,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1091,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1157,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1220,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1318,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1377,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1442,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1485,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1560,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1746,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1812,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1870,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1936,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1992,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2067,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2110,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2176,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2232,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2847,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.323</v>
+        <v>13.073</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3305,11 +3308,15 @@
       <c r="A32" s="40">
         <v>44682</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
@@ -5148,18 +5155,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
-        <v>5</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.26</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="47">
         <v>5</v>

--- a/CASUAL/LA ONT/DATU, SHIRLEY GAZMEN.xlsx
+++ b/CASUAL/LA ONT/DATU, SHIRLEY GAZMEN.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-1)</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +2331,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2675,12 +2678,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2850,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.073</v>
+        <v>12.320999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3443,88 +3446,84 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="39">
-        <v>1</v>
-      </c>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="49">
-        <v>44860</v>
-      </c>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="39">
-        <v>5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H39" s="39"/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="39">
+        <v>1</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20" t="s">
-        <v>55</v>
+      <c r="K39" s="49">
+        <v>44860</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="13">
-        <v>1.25</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="39">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="20"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>0.252</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
@@ -3538,13 +3537,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="39">
+        <v>21</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
@@ -3554,22 +3557,22 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>44958</v>
+      <c r="A43" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -3598,7 +3601,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3618,7 +3621,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3638,7 +3641,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3658,7 +3661,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -3678,7 +3681,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
@@ -3698,7 +3701,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3718,7 +3721,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -3738,7 +3741,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -3758,16 +3761,18 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -3775,17 +3780,19 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>60</v>
+      <c r="A54" s="40">
+        <v>45231</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -3794,7 +3801,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3811,8 +3818,8 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>45323</v>
+      <c r="A56" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3830,7 +3837,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3848,7 +3855,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3865,7 +3872,9 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>45352</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -3881,7 +3890,9 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45383</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -5033,20 +5044,52 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5157,12 +5200,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="47">
         <v>5</v>
